--- a/tut06/output/2001ME35.xlsx
+++ b/tut06/output/2001ME35.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -735,7 +735,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
